--- a/biology/Botanique/Parc_Marcel-Cachin/Parc_Marcel-Cachin.xlsx
+++ b/biology/Botanique/Parc_Marcel-Cachin/Parc_Marcel-Cachin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Marcel-Cachin est un parc urbain à Saint-Denis.
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 6 hectare, le parc est aménagé sommairement en bordure de l'avenue Lénine et de l'avenue Marcel-Cachin dans la quartier de la Mutualité, ce conduit Mathieu Hanotin à proposer en 2019 de le réaménager, notamment en réunifiant ses différentes parties traversées par des voies routières[1]. 
-Les concertations débutent en 2021 pour des travaux à lancer en 2024[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 6 hectare, le parc est aménagé sommairement en bordure de l'avenue Lénine et de l'avenue Marcel-Cachin dans la quartier de la Mutualité, ce conduit Mathieu Hanotin à proposer en 2019 de le réaménager, notamment en réunifiant ses différentes parties traversées par des voies routières. 
+Les concertations débutent en 2021 pour des travaux à lancer en 2024.
 Au sud du parc, on trouve une crèche et une maison de santé.
 </t>
         </is>
@@ -547,9 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horaires d'ouverture
-Transports en commun
-Le parc est accessible en bus uniquement, par les lignes 153, 253 et 353 du réseau de bus RATP à l'arrêt Marville.
+          <t>Transports en commun</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est accessible en bus uniquement, par les lignes 153, 253 et 353 du réseau de bus RATP à l'arrêt Marville.
 </t>
         </is>
       </c>
